--- a/DS-101/DS_101/00_data/01_bike_sales/02_wrangled_data/bike_orderlines.xlsx
+++ b/DS-101/DS_101/00_data/01_bike_sales/02_wrangled_data/bike_orderlines.xlsx
@@ -393,7 +393,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.031.924 €</t>
+          <t>1.031.924 â‚¬</t>
         </is>
       </c>
     </row>
@@ -411,7 +411,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.561.658 €</t>
+          <t>1.561.658 â‚¬</t>
         </is>
       </c>
     </row>
@@ -429,7 +429,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.224.152 €</t>
+          <t>1.224.152 â‚¬</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.114.327 €</t>
+          <t>1.114.327 â‚¬</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.589.029 €</t>
+          <t>1.589.029 â‚¬</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.301.461 €</t>
+          <t>1.301.461 â‚¬</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.129.852 €</t>
+          <t>1.129.852 â‚¬</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.411.851 €</t>
+          <t>1.411.851 â‚¬</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.168.783 €</t>
+          <t>1.168.783 â‚¬</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.730.872 €</t>
+          <t>1.730.872 â‚¬</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.853 €</t>
+          <t>95.853 â‚¬</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.361 €</t>
+          <t>72.361 â‚¬</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>451.293 €</t>
+          <t>451.293 â‚¬</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>318.974 €</t>
+          <t>318.974 â‚¬</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>189.952 €</t>
+          <t>189.952 â‚¬</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.395.912 €</t>
+          <t>1.395.912 â‚¬</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.057.760 €</t>
+          <t>2.057.760 â‚¬</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.557.145 €</t>
+          <t>2.557.145 â‚¬</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.833.844 €</t>
+          <t>1.833.844 â‚¬</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.808.838 €</t>
+          <t>2.808.838 â‚¬</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>423.090 €</t>
+          <t>423.090 â‚¬</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>636.550 €</t>
+          <t>636.550 â‚¬</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>731.678 €</t>
+          <t>731.678 â‚¬</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>930.803 €</t>
+          <t>930.803 â‚¬</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.152.635 €</t>
+          <t>1.152.635 â‚¬</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>308.609 €</t>
+          <t>308.609 â‚¬</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>225.647 €</t>
+          <t>225.647 â‚¬</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>338.783 €</t>
+          <t>338.783 â‚¬</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>330.647 €</t>
+          <t>330.647 â‚¬</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>355.215 €</t>
+          <t>355.215 â‚¬</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>584.386 €</t>
+          <t>584.386 â‚¬</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>639.839 €</t>
+          <t>639.839 â‚¬</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.055.747 €</t>
+          <t>1.055.747 â‚¬</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>929.624 €</t>
+          <t>929.624 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>897.519 €</t>
+          <t>897.519 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>222.003 €</t>
+          <t>222.003 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>75.443 €</t>
+          <t>75.443 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>201.218 €</t>
+          <t>201.218 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>21.041 €</t>
+          <t>21.041 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>99.269 €</t>
+          <t>99.269 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.735.092 €</t>
+          <t>3.735.092 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.002.792 €</t>
+          <t>3.002.792 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.671.541 €</t>
+          <t>4.671.541 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.601.681 €</t>
+          <t>4.601.681 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5.189.507 €</t>
+          <t>5.189.507 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>238.371 €</t>
+          <t>238.371 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>589.994 €</t>
+          <t>589.994 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>595.378 €</t>
+          <t>595.378 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>338.344 €</t>
+          <t>338.344 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>468.158 €</t>
+          <t>468.158 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>144.737 €</t>
+          <t>144.737 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>65.901 €</t>
+          <t>65.901 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>194.509 €</t>
+          <t>194.509 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>81.163 €</t>
+          <t>81.163 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>83.304 €</t>
+          <t>83.304 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>448.844 €</t>
+          <t>448.844 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>672.710 €</t>
+          <t>672.710 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.076.996 €</t>
+          <t>1.076.996 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>572.622 €</t>
+          <t>572.622 â‚¬</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>453.577 €</t>
+          <t>453.577 â‚¬</t>
         </is>
       </c>
     </row>
